--- a/analysis/post_gemini_data/participant 310/Sheet3.xlsx
+++ b/analysis/post_gemini_data/participant 310/Sheet3.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP9"/>
+  <dimension ref="A1:AP10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,458 +422,326 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>arg6</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>args2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>args3</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>assign</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>asssign</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>codnstate</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>condstat5</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>condstate</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>condstate2</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>condstate3</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>condstate4</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>index</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>index2</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>index3</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>loopbody</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>loopstate</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>methodcall</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>methodcall2</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>methodcall3</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>methodcall5</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>methodcall7</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>methoddec</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>var10</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>var11</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>var12</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>var13</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>var14</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>var4</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>var5</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>var6</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>var7</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>var8</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>var9</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>vars</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>arg</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>arg6</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>args2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>args3</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>asssign</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>codnstate</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>condstat5</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>condstate</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>condstate2</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>condstate3</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>condstate4</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>gemini</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>index2</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>index3</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>loopbody</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>loopstate</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>methodcall</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>methodcall2</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>methodcall3</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>methodcall5</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>methodcall7</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>methoddec</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>param</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>summary</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>var10</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>var11</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>var12</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>var13</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>var14</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>var2</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>var3</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>var4</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>var5</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>var6</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>var7</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>var8</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>var9</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>vars</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Fixation based metrics</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fixation based metrics,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>Revisit count</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>12</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>9</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
+      <c r="W3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2</v>
+      </c>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
+      <c r="Z3" t="n">
+        <v>2</v>
+      </c>
       <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
+      <c r="AB3" t="n">
+        <v>15</v>
+      </c>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
@@ -896,44 +752,80 @@
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Revisit count,1,NaN,NaN,NaN,0,NaN,12,3,NaN,10,1,NaN,2,1,NaN,NaN,0,9,0,1,NaN,1,2,NaN,2,NaN,15,NaN,NaN,NaN,NaN,NaN,NaN,NaN,NaN,NaN,NaN,0,NaN,NaN,0,</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>Fixation count</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>24</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>17</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3</v>
+      </c>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>3</v>
+      </c>
+      <c r="O4" t="n">
+        <v>91</v>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>16</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
+      <c r="W4" t="n">
+        <v>3</v>
+      </c>
+      <c r="X4" t="n">
+        <v>3</v>
+      </c>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
+      <c r="Z4" t="n">
+        <v>5</v>
+      </c>
       <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
+      <c r="AB4" t="n">
+        <v>74</v>
+      </c>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
@@ -944,44 +836,80 @@
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
+      <c r="AM4" t="n">
+        <v>1</v>
+      </c>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
+      <c r="AP4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fixation count,2,NaN,NaN,NaN,1,NaN,24,6,NaN,17,3,NaN,3,91,NaN,NaN,1,16,1,3,NaN,3,3,NaN,5,NaN,74,NaN,NaN,NaN,NaN,NaN,NaN,NaN,NaN,NaN,NaN,1,NaN,NaN,1,</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>Dwell time (ms)</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>966.96</v>
+      </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>116.8</v>
+      </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>7432.35</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2610.44</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>4821.04</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1234.62</v>
+      </c>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>784.0700000000001</v>
+      </c>
+      <c r="O5" t="n">
+        <v>19746.37</v>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>116.8</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4321.26</v>
+      </c>
+      <c r="T5" t="n">
+        <v>884.24</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1851.34</v>
+      </c>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
+      <c r="W5" t="n">
+        <v>1234.62</v>
+      </c>
+      <c r="X5" t="n">
+        <v>750.73</v>
+      </c>
       <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
+      <c r="Z5" t="n">
+        <v>2435.39</v>
+      </c>
       <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
+      <c r="AB5" t="n">
+        <v>33034.41</v>
+      </c>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
@@ -992,44 +920,80 @@
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="inlineStr"/>
+      <c r="AM5" t="n">
+        <v>300.27</v>
+      </c>
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
+      <c r="AP5" t="n">
+        <v>884.24</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dwell time (ms),966.96,NaN,NaN,NaN,116.8,NaN,7432.35,2610.44,NaN,4821.04,1234.62,NaN,784.07,19746.37,NaN,NaN,116.8,4321.26,884.24,1851.34,NaN,1234.62,750.73,NaN,2435.39,NaN,33034.41,NaN,NaN,NaN,NaN,NaN,NaN,NaN,NaN,NaN,NaN,300.27,NaN,NaN,884.24,</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>Dwell time (%)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.96</v>
+      </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>0.12</v>
+      </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.59</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.22</v>
+      </c>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="O6" t="n">
+        <v>19.57</v>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.83</v>
+      </c>
       <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
+      <c r="W6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.74</v>
+      </c>
       <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
+      <c r="Z6" t="n">
+        <v>2.41</v>
+      </c>
       <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
+      <c r="AB6" t="n">
+        <v>32.73</v>
+      </c>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
@@ -1040,44 +1004,80 @@
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="inlineStr"/>
+      <c r="AM6" t="n">
+        <v>0.3</v>
+      </c>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
+      <c r="AP6" t="n">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dwell time (%),0.96,NaN,NaN,NaN,0.12,NaN,7.36,2.59,NaN,4.78,1.22,NaN,0.78,19.57,NaN,NaN,0.12,4.28,0.88,1.83,NaN,1.22,0.74,NaN,2.41,NaN,32.73,NaN,NaN,NaN,NaN,NaN,NaN,NaN,NaN,NaN,NaN,0.3,NaN,NaN,0.88,</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
+          <t>Fixation duration (ms)</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>483.48</v>
+      </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>116.8</v>
+      </c>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>309.68</v>
+      </c>
+      <c r="I7" t="n">
+        <v>435.07</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>283.59</v>
+      </c>
+      <c r="L7" t="n">
+        <v>411.54</v>
+      </c>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
+      <c r="N7" t="n">
+        <v>261.36</v>
+      </c>
+      <c r="O7" t="n">
+        <v>216.99</v>
+      </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>116.8</v>
+      </c>
+      <c r="S7" t="n">
+        <v>270.08</v>
+      </c>
+      <c r="T7" t="n">
+        <v>884.24</v>
+      </c>
+      <c r="U7" t="n">
+        <v>617.11</v>
+      </c>
       <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
+      <c r="W7" t="n">
+        <v>411.54</v>
+      </c>
+      <c r="X7" t="n">
+        <v>250.24</v>
+      </c>
       <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
+      <c r="Z7" t="n">
+        <v>487.08</v>
+      </c>
       <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
+      <c r="AB7" t="n">
+        <v>446.41</v>
+      </c>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
@@ -1088,44 +1088,80 @@
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="inlineStr"/>
+      <c r="AM7" t="n">
+        <v>300.27</v>
+      </c>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
+      <c r="AP7" t="n">
+        <v>884.24</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fixation duration (ms),483.48,NaN,NaN,NaN,116.8,NaN,309.68,435.07,NaN,283.59,411.54,NaN,261.36,216.99,NaN,NaN,116.8,270.08,884.24,617.11,NaN,411.54,250.24,NaN,487.08,NaN,446.41,NaN,NaN,NaN,NaN,NaN,NaN,NaN,NaN,NaN,NaN,300.27,NaN,NaN,884.24,</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+          <t>First fixation duration (ms)</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>499.78</v>
+      </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>116.8</v>
+      </c>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>150.22</v>
+      </c>
+      <c r="I8" t="n">
+        <v>467.32</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>499.78</v>
+      </c>
+      <c r="L8" t="n">
+        <v>200.18</v>
+      </c>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
+      <c r="N8" t="n">
+        <v>300.27</v>
+      </c>
+      <c r="O8" t="n">
+        <v>559.1</v>
+      </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>116.8</v>
+      </c>
+      <c r="S8" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>884.24</v>
+      </c>
+      <c r="U8" t="n">
+        <v>467.32</v>
+      </c>
       <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
+      <c r="W8" t="n">
+        <v>200.18</v>
+      </c>
+      <c r="X8" t="n">
+        <v>183.5</v>
+      </c>
       <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
+      <c r="Z8" t="n">
+        <v>817.55</v>
+      </c>
       <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
+      <c r="AB8" t="n">
+        <v>300.37</v>
+      </c>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
@@ -1136,17 +1172,17 @@
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr"/>
+      <c r="AM8" t="n">
+        <v>300.27</v>
+      </c>
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr"/>
+      <c r="AP8" t="n">
+        <v>884.24</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>First fixation duration (ms),499.78,NaN,NaN,NaN,116.8,NaN,150.22,467.32,NaN,499.78,200.18,NaN,300.27,559.1,NaN,NaN,116.8,183.5,884.24,467.32,NaN,200.18,183.5,NaN,817.55,NaN,300.37,NaN,NaN,NaN,NaN,NaN,NaN,NaN,NaN,NaN,NaN,300.27,NaN,NaN,884.24,</t>
-        </is>
-      </c>
+      <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -1189,6 +1225,50 @@
       <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr"/>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
